--- a/TestCase_ai-la-trieu-phu.xlsx
+++ b/TestCase_ai-la-trieu-phu.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -58,16 +53,6 @@
   </si>
   <si>
     <t>Chức năng điểm cao</t>
-  </si>
-  <si>
-    <t>Chọn biểu tượng điểm cao(icon cup)</t>
-  </si>
-  <si>
-    <t>Chọn biểu tượng thông tin(icon chữ i)</t>
-  </si>
-  <si>
-    <t>1.Chọn biểu tượng cài đặt(icon bánh răng)
-2.Chọn tắt hoặc bật âm thanh và nhac nền</t>
   </si>
   <si>
     <t>Hiển thị ra bảng điểm đã chơi</t>
@@ -99,13 +84,56 @@
     <t>Chức năng xác suất</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Hiển thị danh sách </t>
+    <t>Bấm chọn biểu tượng chuyên gia</t>
+  </si>
+  <si>
+    <t>1.Hiển thị danh sách chuyên gia
+2.Đưa ra đáp án chinh xác</t>
+  </si>
+  <si>
+    <t>Bấm chọn biểu tượng xác suất</t>
+  </si>
+  <si>
+    <t>1.Hiển thị ra bảng xác suất
+2. Đưa ra kết quả chính xác</t>
+  </si>
+  <si>
+    <t>Bấm chọn biểu tượng 50:50</t>
+  </si>
+  <si>
+    <t>Trò chơi loại 2/3 đáp án sai bất kì</t>
+  </si>
+  <si>
+    <t>Bấm chọn biểu tượng đổi câu hỏi</t>
+  </si>
+  <si>
+    <t>Trò chơi thay đổi 1 câu hỏi bất kì</t>
+  </si>
+  <si>
+    <t>1.Chọn biểu tượng dừng chơi
+2.Bấm chọn hủy
+3.Bấm chọn đồng ý</t>
+  </si>
+  <si>
+    <t>1.Hiển thị ra bảng thông báo
+2.Tiếp tục chơi
+3.Chuyển qua màn hình chính</t>
+  </si>
+  <si>
+    <t>Chọn biểu tượng điểm cao</t>
+  </si>
+  <si>
+    <t>1.Chọn biểu tượng cài đặt
+2.Chọn tắt hoặc bật âm thanh và nhac nền</t>
+  </si>
+  <si>
+    <t>Chọn biểu tượng thông tin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +520,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -551,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -569,10 +597,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -584,28 +612,32 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
@@ -616,10 +648,14 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,46 +666,58 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
